--- a/assets/templates/danh-sach.xlsx
+++ b/assets/templates/danh-sach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haits\Desktop\hoi-thi\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haits\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB63CF7-2516-4C04-BC5F-003170D59D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB9F85-925B-4D0E-AC6F-6D02C534ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="230">
   <si>
     <t>CN Chợ Lớn</t>
   </si>
@@ -725,13 +725,19 @@
   </si>
   <si>
     <t>SCORE</t>
+  </si>
+  <si>
+    <t>Lượt 1</t>
+  </si>
+  <si>
+    <t>Lượt 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -753,7 +759,19 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -779,51 +797,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -841,24 +820,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -866,38 +832,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,1852 +1149,2479 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F81"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="20.55" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="8" t="str">
         <f>CONCATENATE(A2,"-khdn")</f>
         <v>01-khdn</v>
       </c>
-      <c r="E2" s="13" t="str">
+      <c r="E2" s="5" t="str">
+        <f>CONCATENATE(D2, ",", G2, ",", H2)</f>
+        <v>01-khdn,01-khdn/1,01-khdn/2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="str">
         <f>CONCATENATE(D2,"/1")</f>
         <v>01-khdn/1</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
+      <c r="H2" s="6" t="str">
+        <f>CONCATENATE(D2,"/2")</f>
+        <v>01-khdn/2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="8" t="str">
         <f>CONCATENATE(A3,"-3thang2")</f>
         <v>02-3thang2</v>
       </c>
-      <c r="E3" s="13" t="str">
-        <f t="shared" ref="E3:E66" si="0">CONCATENATE(D3,"/1")</f>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE(D3, ",", G3, ",", H3)</f>
+        <v>02-3thang2,02-3thang2/1,02-3thang2/2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>CONCATENATE(D3,"/1")</f>
         <v>02-3thang2/1</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
+      <c r="H3" s="6" t="str">
+        <f t="shared" ref="H3:H66" si="1">CONCATENATE(D3,"/2")</f>
+        <v>02-3thang2/2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="8" t="str">
         <f>CONCATENATE(A4,"-thanhxuan")</f>
         <v>03-thanhxuan</v>
       </c>
-      <c r="E4" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>03-thanhxuan,03-thanhxuan/1,03-thanhxuan/2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f>CONCATENATE(D4,"/1")</f>
         <v>03-thanhxuan/1</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
+      <c r="H4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>03-thanhxuan/2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="8" t="str">
         <f>CONCATENATE(A5,"-kdvtt")</f>
         <v>04-kdvtt</v>
       </c>
-      <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>04-kdvtt,04-kdvtt/1,04-kdvtt/2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>CONCATENATE(D5,"/1")</f>
         <v>04-kdvtt/1</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
+      <c r="H5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>04-kdvtt/2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="8" t="str">
         <f>CONCATENATE(A6,"-hanoi")</f>
         <v>05-hanoi</v>
       </c>
-      <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>05-hanoi,05-hanoi/1,05-hanoi/2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f>CONCATENATE(D6,"/1")</f>
         <v>05-hanoi/1</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="H6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>05-hanoi/2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="8" t="str">
         <f>CONCATENATE(A7,"-tphcm")</f>
         <v>06-tphcm</v>
       </c>
-      <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>06-tphcm,06-tphcm/1,06-tphcm/2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>CONCATENATE(D7,"/1")</f>
         <v>06-tphcm/1</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
+      <c r="H7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>06-tphcm/2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="8" t="str">
         <f>CONCATENATE(A8,"-cqdtn")</f>
         <v>07-cqdtn</v>
       </c>
-      <c r="E8" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>07-cqdtn,07-cqdtn/1,07-cqdtn/2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f>CONCATENATE(D8,"/1")</f>
         <v>07-cqdtn/1</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
+      <c r="H8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>07-cqdtn/2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="8" t="str">
         <f>CONCATENATE(A9,"-phutai")</f>
         <v>08-phutai</v>
       </c>
-      <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>08-phutai,08-phutai/1,08-phutai/2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>CONCATENATE(D9,"/1")</f>
         <v>08-phutai/1</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
+      <c r="H9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>08-phutai/2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="8" t="str">
         <f>CONCATENATE(A10,"-cantho")</f>
         <v>09-cantho</v>
       </c>
-      <c r="E10" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>09-cantho,09-cantho/1,09-cantho/2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>CONCATENATE(D10,"/1")</f>
         <v>09-cantho/1</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>09-cantho/2</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="8" t="str">
         <f>CONCATENATE(A11,"-sgd1")</f>
         <v>10-sgd1</v>
       </c>
-      <c r="E11" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>10-sgd1,10-sgd1/1,10-sgd1/2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>CONCATENATE(D11,"/1")</f>
         <v>10-sgd1/1</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>10-sgd1/2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="8" t="str">
         <f>CONCATENATE(A12,"-kyhoa")</f>
         <v>11-kyhoa</v>
       </c>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>11-kyhoa,11-kyhoa/1,11-kyhoa/2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>CONCATENATE(D12,"/1")</f>
         <v>11-kyhoa/1</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>11-kyhoa/2</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="8" t="str">
         <f>CONCATENATE(A13,"-phuxuan")</f>
         <v>12-phuxuan</v>
       </c>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>12-phuxuan,12-phuxuan/1,12-phuxuan/2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f>CONCATENATE(D13,"/1")</f>
         <v>12-phuxuan/1</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12-phuxuan/2</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="8" t="str">
         <f>CONCATENATE(A14,"-longan")</f>
         <v>13-longan</v>
       </c>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>13-longan,13-longan/1,13-longan/2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f>CONCATENATE(D14,"/1")</f>
         <v>13-longan/1</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13-longan/2</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="8" t="str">
         <f>CONCATENATE(A15,"-tttntttm")</f>
         <v>14-tttntttm</v>
       </c>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14-tttntttm,14-tttntttm/1,14-tttntttm/2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f>CONCATENATE(D15,"/1")</f>
         <v>14-tttntttm/1</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>14-tttntttm/2</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="8" t="str">
         <f>CONCATENATE(A16,"-caugiay")</f>
         <v>15-caugiay</v>
       </c>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>15-caugiay,15-caugiay/1,15-caugiay/2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f>CONCATENATE(D16,"/1")</f>
         <v>15-caugiay/1</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="H16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>15-caugiay/2</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="8" t="str">
         <f>CONCATENATE(A17,"-thanhdo")</f>
         <v>16-thanhdo</v>
       </c>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>16-thanhdo,16-thanhdo/1,16-thanhdo/2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f>CONCATENATE(D17,"/1")</f>
         <v>16-thanhdo/1</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="H17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>16-thanhdo/2</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="11" t="str">
+      <c r="D18" s="8" t="str">
         <f>CONCATENATE(A18,"-ninhbinh")</f>
         <v>17-ninhbinh</v>
       </c>
-      <c r="E18" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>17-ninhbinh,17-ninhbinh/1,17-ninhbinh/2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>CONCATENATE(D18,"/1")</f>
         <v>17-ninhbinh/1</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="H18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17-ninhbinh/2</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="8" t="str">
         <f>CONCATENATE(A19,"-binhdinh")</f>
         <v>18-binhdinh</v>
       </c>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>18-binhdinh,18-binhdinh/1,18-binhdinh/2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f>CONCATENATE(D19,"/1")</f>
         <v>18-binhdinh/1</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="H19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>18-binhdinh/2</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="8" t="str">
         <f>CONCATENATE(A20,"-th.nguyen")</f>
         <v>19-th.nguyen</v>
       </c>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>19-th.nguyen,19-th.nguyen/1,19-th.nguyen/2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>CONCATENATE(D20,"/1")</f>
         <v>19-th.nguyen/1</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>19-th.nguyen/2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="8" t="str">
         <f>CONCATENATE(A21,"-thanhxuan")</f>
         <v>20-thanhxuan</v>
       </c>
-      <c r="E21" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>20-thanhxuan,20-thanhxuan/1,20-thanhxuan/2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>CONCATENATE(D21,"/1")</f>
         <v>20-thanhxuan/1</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
+      <c r="H21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>20-thanhxuan/2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="8" t="str">
         <f>CONCATENATE(A22,"-lamdong")</f>
         <v>21-lamdong</v>
       </c>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>21-lamdong,21-lamdong/1,21-lamdong/2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>CONCATENATE(D22,"/1")</f>
         <v>21-lamdong/1</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
+      <c r="H22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>21-lamdong/2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="8" t="str">
         <f>CONCATENATE(A23,"-phutho")</f>
         <v>22-phutho</v>
       </c>
-      <c r="E23" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>22-phutho,22-phutho/1,22-phutho/2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>CONCATENATE(D23,"/1")</f>
         <v>22-phutho/1</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
+      <c r="H23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>22-phutho/2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="11" t="str">
+      <c r="D24" s="8" t="str">
         <f>CONCATENATE(A24,"-hanoi")</f>
         <v>23-hanoi</v>
       </c>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>23-hanoi,23-hanoi/1,23-hanoi/2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>CONCATENATE(D24,"/1")</f>
         <v>23-hanoi/1</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
+      <c r="H24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>23-hanoi/2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="11" t="str">
+      <c r="D25" s="8" t="str">
         <f>CONCATENATE(A25,"-khdn")</f>
         <v>24-khdn</v>
       </c>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>24-khdn,24-khdn/1,24-khdn/2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>CONCATENATE(D25,"/1")</f>
         <v>24-khdn/1</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
+      <c r="H25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>24-khdn/2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="11" t="str">
+      <c r="D26" s="8" t="str">
         <f>CONCATENATE(A26,"-dienbien")</f>
         <v>25-dienbien</v>
       </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>25-dienbien,25-dienbien/1,25-dienbien/2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f>CONCATENATE(D26,"/1")</f>
         <v>25-dienbien/1</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
+      <c r="H26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>25-dienbien/2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="11" t="str">
+      <c r="D27" s="8" t="str">
         <f>CONCATENATE(A27,"-ttcntt")</f>
         <v>26-ttcntt</v>
       </c>
-      <c r="E27" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>26-ttcntt,26-ttcntt/1,26-ttcntt/2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f>CONCATENATE(D27,"/1")</f>
         <v>26-ttcntt/1</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
+      <c r="H27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>26-ttcntt/2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="11" t="str">
+      <c r="D28" s="8" t="str">
         <f>CONCATENATE(A28,"-phuquoc")</f>
         <v>27-phuquoc</v>
       </c>
-      <c r="E28" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>27-phuquoc,27-phuquoc/1,27-phuquoc/2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f>CONCATENATE(D28,"/1")</f>
         <v>27-phuquoc/1</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
+      <c r="H28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>27-phuquoc/2</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="11" t="str">
+      <c r="D29" s="8" t="str">
         <f>CONCATENATE(A29,"-binhduong")</f>
         <v>28-binhduong</v>
       </c>
-      <c r="E29" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>28-binhduong,28-binhduong/1,28-binhduong/2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f>CONCATENATE(D29,"/1")</f>
         <v>28-binhduong/1</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
+      <c r="H29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>28-binhduong/2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="11" t="str">
+      <c r="D30" s="8" t="str">
         <f>CONCATENATE(A30,"-hungyen")</f>
         <v>29-hungyen</v>
       </c>
-      <c r="E30" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>29-hungyen,29-hungyen/1,29-hungyen/2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="str">
+        <f>CONCATENATE(D30,"/1")</f>
         <v>29-hungyen/1</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
+      <c r="H30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>29-hungyen/2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="11" t="str">
+      <c r="D31" s="8" t="str">
         <f>CONCATENATE(A31,"-yenbai")</f>
         <v>30-yenbai</v>
       </c>
-      <c r="E31" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>30-yenbai,30-yenbai/1,30-yenbai/2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="str">
+        <f>CONCATENATE(D31,"/1")</f>
         <v>30-yenbai/1</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
+      <c r="H31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>30-yenbai/2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="11" t="str">
+      <c r="D32" s="8" t="str">
         <f>CONCATENATE(A32,"-tiengiang")</f>
         <v>31-tiengiang</v>
       </c>
-      <c r="E32" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>31-tiengiang,31-tiengiang/1,31-tiengiang/2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f>CONCATENATE(D32,"/1")</f>
         <v>31-tiengiang/1</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="H32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>31-tiengiang/2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="11" t="str">
+      <c r="D33" s="8" t="str">
         <f>CONCATENATE(A33,"-daklak")</f>
         <v>32-daklak</v>
       </c>
-      <c r="E33" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>32-daklak,32-daklak/1,32-daklak/2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="str">
+        <f>CONCATENATE(D33,"/1")</f>
         <v>32-daklak/1</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="H33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>32-daklak/2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="11" t="str">
+      <c r="D34" s="8" t="str">
         <f>CONCATENATE(A34,"-baria")</f>
         <v>33-baria</v>
       </c>
-      <c r="E34" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>33-baria,33-baria/1,33-baria/2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="str">
+        <f>CONCATENATE(D34,"/1")</f>
         <v>33-baria/1</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="H34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>33-baria/2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="11" t="str">
+      <c r="D35" s="8" t="str">
         <f>CONCATENATE(A35,"-nghean")</f>
         <v>34-nghean</v>
       </c>
-      <c r="E35" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>34-nghean,34-nghean/1,34-nghean/2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="str">
+        <f>CONCATENATE(D35,"/1")</f>
         <v>34-nghean/1</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="H35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>34-nghean/2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="11" t="str">
+      <c r="D36" s="8" t="str">
         <f>CONCATENATE(A36,"-tttntttm")</f>
         <v>35-tttntttm</v>
       </c>
-      <c r="E36" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>35-tttntttm,35-tttntttm/1,35-tttntttm/2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="str">
+        <f>CONCATENATE(D36,"/1")</f>
         <v>35-tttntttm/1</v>
       </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="H36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>35-tttntttm/2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="11" t="str">
+      <c r="D37" s="8" t="str">
         <f>CONCATENATE(A37,"-thaibinh")</f>
         <v>36-thaibinh</v>
       </c>
-      <c r="E37" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>36-thaibinh,36-thaibinh/1,36-thaibinh/2</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="str">
+        <f>CONCATENATE(D37,"/1")</f>
         <v>36-thaibinh/1</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="H37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>36-thaibinh/2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="11" t="str">
+      <c r="D38" s="8" t="str">
         <f>CONCATENATE(A38,"-tamdiep")</f>
         <v>37-tamdiep</v>
       </c>
-      <c r="E38" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>37-tamdiep,37-tamdiep/1,37-tamdiep/2</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="str">
+        <f>CONCATENATE(D38,"/1")</f>
         <v>37-tamdiep/1</v>
       </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>37-tamdiep/2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="11" t="str">
+      <c r="D39" s="8" t="str">
         <f>CONCATENATE(A39,"-giadinh")</f>
         <v>38-giadinh</v>
       </c>
-      <c r="E39" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>38-giadinh,38-giadinh/1,38-giadinh/2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="str">
+        <f>CONCATENATE(D39,"/1")</f>
         <v>38-giadinh/1</v>
       </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="H39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>38-giadinh/2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="11" t="str">
+      <c r="C40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8" t="str">
         <f>CONCATENATE(A40,"-cholon")</f>
         <v>39-cholon</v>
       </c>
-      <c r="E40" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>39-cholon,39-cholon/1,39-cholon/2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="str">
+        <f>CONCATENATE(D40,"/1")</f>
         <v>39-cholon/1</v>
       </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="H40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>39-cholon/2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D41" s="8" t="str">
         <f>CONCATENATE(A41,"-tphcm")</f>
         <v>40-tphcm</v>
       </c>
-      <c r="E41" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>40-tphcm,40-tphcm/1,40-tphcm/2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="str">
+        <f>CONCATENATE(D41,"/1")</f>
         <v>40-tphcm/1</v>
       </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="H41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>40-tphcm/2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="11" t="str">
+      <c r="D42" s="8" t="str">
         <f>CONCATENATE(A42,"-namdongnai")</f>
         <v>41-namdongnai</v>
       </c>
-      <c r="E42" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>41-namdongnai,41-namdongnai/1,41-namdongnai/2</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="str">
+        <f>CONCATENATE(D42,"/1")</f>
         <v>41-namdongnai/1</v>
       </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="H42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>41-namdongnai/2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="11" t="str">
+      <c r="D43" s="8" t="str">
         <f>CONCATENATE(A43,"-giadinh")</f>
         <v>42-giadinh</v>
       </c>
-      <c r="E43" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>42-giadinh,42-giadinh/1,42-giadinh/2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="str">
+        <f>CONCATENATE(D43,"/1")</f>
         <v>42-giadinh/1</v>
       </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="H43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>42-giadinh/2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="11" t="str">
+      <c r="D44" s="8" t="str">
         <f>CONCATENATE(A44,"-hungyen")</f>
         <v>43-hungyen</v>
       </c>
-      <c r="E44" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>43-hungyen,43-hungyen/1,43-hungyen/2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="str">
+        <f>CONCATENATE(D44,"/1")</f>
         <v>43-hungyen/1</v>
       </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="H44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>43-hungyen/2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="11" t="str">
+      <c r="D45" s="8" t="str">
         <f>CONCATENATE(A45,"-namb.duong")</f>
         <v>44-namb.duong</v>
       </c>
-      <c r="E45" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>44-namb.duong,44-namb.duong/1,44-namb.duong/2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="str">
+        <f>CONCATENATE(D45,"/1")</f>
         <v>44-namb.duong/1</v>
       </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="H45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>44-namb.duong/2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="11" t="str">
+      <c r="D46" s="8" t="str">
         <f>CONCATENATE(A46,"-hanoi")</f>
         <v>45-hanoi</v>
       </c>
-      <c r="E46" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>45-hanoi,45-hanoi/1,45-hanoi/2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="str">
+        <f>CONCATENATE(D46,"/1")</f>
         <v>45-hanoi/1</v>
       </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="H46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>45-hanoi/2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="11" t="str">
+      <c r="D47" s="8" t="str">
         <f>CONCATENATE(A47,"-brvt")</f>
         <v>46-brvt</v>
       </c>
-      <c r="E47" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>46-brvt,46-brvt/1,46-brvt/2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="str">
+        <f>CONCATENATE(D47,"/1")</f>
         <v>46-brvt/1</v>
       </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="H47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>46-brvt/2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="11" t="str">
+      <c r="D48" s="8" t="str">
         <f>CONCATENATE(A48,"-laocai")</f>
         <v>47-laocai</v>
       </c>
-      <c r="E48" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>47-laocai,47-laocai/1,47-laocai/2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="str">
+        <f>CONCATENATE(D48,"/1")</f>
         <v>47-laocai/1</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
+      <c r="H48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>47-laocai/2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="11" t="str">
+      <c r="D49" s="8" t="str">
         <f>CONCATENATE(A49,"-nghean")</f>
         <v>48-nghean</v>
       </c>
-      <c r="E49" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>48-nghean,48-nghean/1,48-nghean/2</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="str">
+        <f>CONCATENATE(D49,"/1")</f>
         <v>48-nghean/1</v>
       </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="H49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>48-nghean/2</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="11" t="str">
+      <c r="D50" s="8" t="str">
         <f>CONCATENATE(A50,"-chauthanhsg")</f>
         <v>49-chauthanhsg</v>
       </c>
-      <c r="E50" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>49-chauthanhsg,49-chauthanhsg/1,49-chauthanhsg/2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="str">
+        <f>CONCATENATE(D50,"/1")</f>
         <v>49-chauthanhsg/1</v>
       </c>
-      <c r="F50" s="1">
-        <v>0</v>
+      <c r="H50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>49-chauthanhsg/2</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="11" t="str">
+      <c r="D51" s="8" t="str">
         <f>CONCATENATE(A51,"-hoankiem")</f>
         <v>50-hoankiem</v>
       </c>
-      <c r="E51" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>50-hoankiem,50-hoankiem/1,50-hoankiem/2</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <f>CONCATENATE(D51,"/1")</f>
         <v>50-hoankiem/1</v>
       </c>
-      <c r="F51" s="1">
-        <v>0</v>
+      <c r="H51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>50-hoankiem/2</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="11" t="str">
+      <c r="D52" s="8" t="str">
         <f>CONCATENATE(A52,"-hathanh")</f>
         <v>51-hathanh</v>
       </c>
-      <c r="E52" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>51-hathanh,51-hathanh/1,51-hathanh/2</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f>CONCATENATE(D52,"/1")</f>
         <v>51-hathanh/1</v>
       </c>
-      <c r="F52" s="1">
-        <v>0</v>
+      <c r="H52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>51-hathanh/2</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="11" t="str">
+      <c r="D53" s="8" t="str">
         <f>CONCATENATE(A53,"-phudien")</f>
         <v>52-phudien</v>
       </c>
-      <c r="E53" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>52-phudien,52-phudien/1,52-phudien/2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <f>CONCATENATE(D53,"/1")</f>
         <v>52-phudien/1</v>
       </c>
-      <c r="F53" s="1">
-        <v>0</v>
+      <c r="H53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>52-phudien/2</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="11" t="str">
+      <c r="D54" s="8" t="str">
         <f>CONCATENATE(A54,"-dbscl")</f>
         <v>53-dbscl</v>
       </c>
-      <c r="E54" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>53-dbscl,53-dbscl/1,53-dbscl/2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="str">
+        <f>CONCATENATE(D54,"/1")</f>
         <v>53-dbscl/1</v>
       </c>
-      <c r="F54" s="1">
-        <v>0</v>
+      <c r="H54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>53-dbscl/2</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="11" t="str">
+      <c r="D55" s="8" t="str">
         <f>CONCATENATE(A55,"-d.haiphong")</f>
         <v>54-d.haiphong</v>
       </c>
-      <c r="E55" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>54-d.haiphong,54-d.haiphong/1,54-d.haiphong/2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="str">
+        <f>CONCATENATE(D55,"/1")</f>
         <v>54-d.haiphong/1</v>
       </c>
-      <c r="F55" s="1">
-        <v>0</v>
+      <c r="H55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>54-d.haiphong/2</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="11" t="str">
+      <c r="D56" s="8" t="str">
         <f>CONCATENATE(A56,"-bacgiang")</f>
         <v>55-bacgiang</v>
       </c>
-      <c r="E56" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>55-bacgiang,55-bacgiang/1,55-bacgiang/2</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="str">
+        <f>CONCATENATE(D56,"/1")</f>
         <v>55-bacgiang/1</v>
       </c>
-      <c r="F56" s="1">
-        <v>0</v>
+      <c r="H56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>55-bacgiang/2</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="11" t="str">
+      <c r="D57" s="8" t="str">
         <f>CONCATENATE(A57,"-laichau")</f>
         <v>56-laichau</v>
       </c>
-      <c r="E57" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>56-laichau,56-laichau/1,56-laichau/2</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="str">
+        <f>CONCATENATE(D57,"/1")</f>
         <v>56-laichau/1</v>
       </c>
-      <c r="F57" s="1">
-        <v>0</v>
+      <c r="H57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>56-laichau/2</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="11" t="str">
+      <c r="D58" s="8" t="str">
         <f>CONCATENATE(A58,"-giadinh")</f>
         <v>57-giadinh</v>
       </c>
-      <c r="E58" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>57-giadinh,57-giadinh/1,57-giadinh/2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="str">
+        <f>CONCATENATE(D58,"/1")</f>
         <v>57-giadinh/1</v>
       </c>
-      <c r="F58" s="1">
-        <v>0</v>
+      <c r="H58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>57-giadinh/2</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="11" t="str">
+      <c r="D59" s="8" t="str">
         <f>CONCATENATE(A59,"-ketoan")</f>
         <v>58-ketoan</v>
       </c>
-      <c r="E59" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>58-ketoan,58-ketoan/1,58-ketoan/2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="str">
+        <f>CONCATENATE(D59,"/1")</f>
         <v>58-ketoan/1</v>
       </c>
-      <c r="F59" s="1">
-        <v>0</v>
+      <c r="H59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>58-ketoan/2</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="11" t="str">
+      <c r="D60" s="8" t="str">
         <f>CONCATENATE(A60,"-namb.duong")</f>
         <v>59-namb.duong</v>
       </c>
-      <c r="E60" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>59-namb.duong,59-namb.duong/1,59-namb.duong/2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="str">
+        <f>CONCATENATE(D60,"/1")</f>
         <v>59-namb.duong/1</v>
       </c>
-      <c r="F60" s="1">
-        <v>0</v>
+      <c r="H60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>59-namb.duong/2</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="11" t="str">
+      <c r="D61" s="8" t="str">
         <f>CONCATENATE(A61,"-longan")</f>
         <v>60-longan</v>
       </c>
-      <c r="E61" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>60-longan,60-longan/1,60-longan/2</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="str">
+        <f>CONCATENATE(D61,"/1")</f>
         <v>60-longan/1</v>
       </c>
-      <c r="F61" s="1">
-        <v>0</v>
+      <c r="H61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>60-longan/2</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="11" t="str">
+      <c r="D62" s="8" t="str">
         <f>CONCATENATE(A62,"-ttdvkh")</f>
         <v>61-ttdvkh</v>
       </c>
-      <c r="E62" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>61-ttdvkh,61-ttdvkh/1,61-ttdvkh/2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="str">
+        <f>CONCATENATE(D62,"/1")</f>
         <v>61-ttdvkh/1</v>
       </c>
-      <c r="F62" s="1">
-        <v>0</v>
+      <c r="H62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>61-ttdvkh/2</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="11" t="str">
+      <c r="D63" s="8" t="str">
         <f>CONCATENATE(A63,"-tiengiang")</f>
         <v>62-tiengiang</v>
       </c>
-      <c r="E63" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>62-tiengiang,62-tiengiang/1,62-tiengiang/2</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="str">
+        <f>CONCATENATE(D63,"/1")</f>
         <v>62-tiengiang/1</v>
       </c>
-      <c r="F63" s="1">
-        <v>0</v>
+      <c r="H63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>62-tiengiang/2</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="11" t="str">
+      <c r="D64" s="8" t="str">
         <f>CONCATENATE(A64,"-tpthuduc")</f>
         <v>63-tpthuduc</v>
       </c>
-      <c r="E64" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>63-tpthuduc,63-tpthuduc/1,63-tpthuduc/2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="str">
+        <f>CONCATENATE(D64,"/1")</f>
         <v>63-tpthuduc/1</v>
       </c>
-      <c r="F64" s="1">
-        <v>0</v>
+      <c r="H64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>63-tpthuduc/2</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="11" t="str">
+      <c r="D65" s="8" t="str">
         <f>CONCATENATE(A65,"-tcns")</f>
         <v>64-tcns</v>
       </c>
-      <c r="E65" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>64-tcns,64-tcns/1,64-tcns/2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="str">
+        <f>CONCATENATE(D65,"/1")</f>
         <v>64-tcns/1</v>
       </c>
-      <c r="F65" s="1">
-        <v>0</v>
+      <c r="H65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>64-tcns/2</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="11" t="str">
+      <c r="D66" s="8" t="str">
         <f>CONCATENATE(A66,"-buonho")</f>
         <v>65-buonho</v>
       </c>
-      <c r="E66" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>65-buonho,65-buonho/1,65-buonho/2</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="str">
+        <f>CONCATENATE(D66,"/1")</f>
         <v>65-buonho/1</v>
       </c>
-      <c r="F66" s="1">
-        <v>0</v>
+      <c r="H66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>65-buonho/2</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="11" t="str">
+      <c r="D67" s="8" t="str">
         <f>CONCATENATE(A67,"-tkhdqt")</f>
         <v>66-tkhdqt</v>
       </c>
-      <c r="E67" s="13" t="str">
-        <f t="shared" ref="E67:E81" si="1">CONCATENATE(D67,"/1")</f>
+      <c r="E67" s="5" t="str">
+        <f t="shared" ref="E67:E81" si="2">CONCATENATE(D67, ",", G67, ",", H67)</f>
+        <v>66-tkhdqt,66-tkhdqt/1,66-tkhdqt/2</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="str">
+        <f>CONCATENATE(D67,"/1")</f>
         <v>66-tkhdqt/1</v>
       </c>
-      <c r="F67" s="1">
-        <v>0</v>
+      <c r="H67" s="6" t="str">
+        <f t="shared" ref="H67:H81" si="3">CONCATENATE(D67,"/2")</f>
+        <v>66-tkhdqt/2</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="11" t="str">
+      <c r="D68" s="8" t="str">
         <f>CONCATENATE(A68,"-longan")</f>
         <v>67-longan</v>
       </c>
-      <c r="E68" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>67-longan,67-longan/1,67-longan/2</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="str">
+        <f>CONCATENATE(D68,"/1")</f>
         <v>67-longan/1</v>
       </c>
-      <c r="F68" s="1">
-        <v>0</v>
+      <c r="H68" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>67-longan/2</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="11" t="str">
+      <c r="D69" s="8" t="str">
         <f>CONCATENATE(A69,"-gialai")</f>
         <v>68-gialai</v>
       </c>
-      <c r="E69" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>68-gialai,68-gialai/1,68-gialai/2</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <f>CONCATENATE(D69,"/1")</f>
         <v>68-gialai/1</v>
       </c>
-      <c r="F69" s="1">
-        <v>0</v>
+      <c r="H69" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>68-gialai/2</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="11" t="str">
+      <c r="D70" s="8" t="str">
         <f>CONCATENATE(A70,"-phonui")</f>
         <v>69-phonui</v>
       </c>
-      <c r="E70" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E70" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>69-phonui,69-phonui/1,69-phonui/2</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="str">
+        <f>CONCATENATE(D70,"/1")</f>
         <v>69-phonui/1</v>
       </c>
-      <c r="F70" s="1">
-        <v>0</v>
+      <c r="H70" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>69-phonui/2</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="11" t="str">
+      <c r="D71" s="8" t="str">
         <f>CONCATENATE(A71,"-hongha")</f>
         <v>70-hongha</v>
       </c>
-      <c r="E71" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E71" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>70-hongha,70-hongha/1,70-hongha/2</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5" t="str">
+        <f>CONCATENATE(D71,"/1")</f>
         <v>70-hongha/1</v>
       </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="H71" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>70-hongha/2</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="11" t="str">
+      <c r="D72" s="8" t="str">
         <f>CONCATENATE(A72,"-hocmon")</f>
         <v>71-hocmon</v>
       </c>
-      <c r="E72" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E72" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>71-hocmon,71-hocmon/1,71-hocmon/2</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="str">
+        <f>CONCATENATE(D72,"/1")</f>
         <v>71-hocmon/1</v>
       </c>
-      <c r="F72" s="1">
-        <v>0</v>
+      <c r="H72" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>71-hocmon/2</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="11" t="str">
+      <c r="D73" s="8" t="str">
         <f>CONCATENATE(A73,"-haiphong")</f>
         <v>72-haiphong</v>
       </c>
-      <c r="E73" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E73" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>72-haiphong,72-haiphong/1,72-haiphong/2</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5" t="str">
+        <f>CONCATENATE(D73,"/1")</f>
         <v>72-haiphong/1</v>
       </c>
-      <c r="F73" s="1">
-        <v>0</v>
+      <c r="H73" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>72-haiphong/2</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="11" t="str">
+      <c r="D74" s="8" t="str">
         <f>CONCATENATE(A74,"-vanphong")</f>
         <v>73-vanphong</v>
       </c>
-      <c r="E74" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E74" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>73-vanphong,73-vanphong/1,73-vanphong/2</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5" t="str">
+        <f>CONCATENATE(D74,"/1")</f>
         <v>73-vanphong/1</v>
       </c>
-      <c r="F74" s="1">
-        <v>0</v>
+      <c r="H74" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>73-vanphong/2</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="11" t="str">
+      <c r="D75" s="8" t="str">
         <f>CONCATENATE(A75,"-hanoi")</f>
         <v>74-hanoi</v>
       </c>
-      <c r="E75" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E75" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>74-hanoi,74-hanoi/1,74-hanoi/2</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5" t="str">
+        <f>CONCATENATE(D75,"/1")</f>
         <v>74-hanoi/1</v>
       </c>
-      <c r="F75" s="1">
-        <v>0</v>
+      <c r="H75" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>74-hanoi/2</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="11" t="str">
+      <c r="D76" s="8" t="str">
         <f>CONCATENATE(A76,"-gialai")</f>
         <v>75-gialai</v>
       </c>
-      <c r="E76" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E76" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>75-gialai,75-gialai/1,75-gialai/2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="str">
+        <f>CONCATENATE(D76,"/1")</f>
         <v>75-gialai/1</v>
       </c>
-      <c r="F76" s="1">
-        <v>0</v>
+      <c r="H76" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>75-gialai/2</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="11" t="str">
+      <c r="D77" s="8" t="str">
         <f>CONCATENATE(A77,"-quangtri")</f>
         <v>76-quangtri</v>
       </c>
-      <c r="E77" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E77" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>76-quangtri,76-quangtri/1,76-quangtri/2</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5" t="str">
+        <f>CONCATENATE(D77,"/1")</f>
         <v>76-quangtri/1</v>
       </c>
-      <c r="F77" s="1">
-        <v>0</v>
+      <c r="H77" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>76-quangtri/2</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="11" t="str">
+      <c r="D78" s="8" t="str">
         <f>CONCATENATE(A78,"-quangninh")</f>
         <v>77-quangninh</v>
       </c>
-      <c r="E78" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E78" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>77-quangninh,77-quangninh/1,77-quangninh/2</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="str">
+        <f>CONCATENATE(D78,"/1")</f>
         <v>77-quangninh/1</v>
       </c>
-      <c r="F78" s="1">
-        <v>0</v>
+      <c r="H78" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>77-quangninh/2</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="11" t="str">
+      <c r="D79" s="8" t="str">
         <f>CONCATENATE(A79,"-gialai")</f>
         <v>78-gialai</v>
       </c>
-      <c r="E79" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E79" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>78-gialai,78-gialai/1,78-gialai/2</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5" t="str">
+        <f>CONCATENATE(D79,"/1")</f>
         <v>78-gialai/1</v>
       </c>
-      <c r="F79" s="1">
-        <v>0</v>
+      <c r="H79" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>78-gialai/2</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="11" t="str">
+      <c r="D80" s="8" t="str">
         <f>CONCATENATE(A80,"-b.quangbinh")</f>
         <v>79-b.quangbinh</v>
       </c>
-      <c r="E80" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E80" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>79-b.quangbinh,79-b.quangbinh/1,79-b.quangbinh/2</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="str">
+        <f>CONCATENATE(D80,"/1")</f>
         <v>79-b.quangbinh/1</v>
       </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="H80" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>79-b.quangbinh/2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="11" t="str">
+      <c r="C81" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="8" t="str">
         <f>CONCATENATE(A81,"-cholon")</f>
         <v>80-cholon</v>
       </c>
-      <c r="E81" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E81" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>80-cholon,80-cholon/1,80-cholon/2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5" t="str">
+        <f>CONCATENATE(D81,"/1")</f>
         <v>80-cholon/1</v>
       </c>
-      <c r="F81" s="1">
-        <v>0</v>
+      <c r="H81" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>80-cholon/2</v>
       </c>
     </row>
   </sheetData>
